--- a/biology/Origine et évolution du vivant/Phylogénie/Phylogénie.xlsx
+++ b/biology/Origine et évolution du vivant/Phylogénie/Phylogénie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Phylog%C3%A9nie</t>
+          <t>Phylogénie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phylogenèse ou phylogénie, du grec ancien φῦλον / phûlon, « tribu, famille, clan » et γένεσις / génesis, « genèse »[1], est l'étude des liens de parenté (relations phylogénétiques ou phylétiques) entre les êtres vivants et ceux qui ont disparu :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phylogenèse ou phylogénie, du grec ancien φῦλον / phûlon, « tribu, famille, clan » et γένεσις / génesis, « genèse », est l'étude des liens de parenté (relations phylogénétiques ou phylétiques) entre les êtres vivants et ceux qui ont disparu :
 entre individus (niveau généalogique ; seule une généalogie individuelle peut répondre à la question « qui est l'ancêtre de qui ? », tandis qu'une phylogénie de groupe peut répondre à la question « qui est le plus proche parent de qui ? ») ;
 entre populations (à l'intérieur d'une même espèce qui, pour simplifier, peut se résumer à une population dont les membres sont interféconds : niveau intraspécifique) ;
 entre espèces (niveau interspécifique).
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Phylog%C3%A9nie</t>
+          <t>Phylogénie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,9 +531,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme de phylogénie est créé par Ernst Haeckel[2] dans son ouvrage  Natürliche Schöpfungsgeschichte (1868). Il dénomme ainsi l'« histoire de l'évolution paléontologique des organismes » par opposition à l'histoire de l'évolution individuelle ou ontogénie qu'il considère comme une récapitulation de la première[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme de phylogénie est créé par Ernst Haeckel dans son ouvrage  Natürliche Schöpfungsgeschichte (1868). Il dénomme ainsi l'« histoire de l'évolution paléontologique des organismes » par opposition à l'histoire de l'évolution individuelle ou ontogénie qu'il considère comme une récapitulation de la première.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Phylog%C3%A9nie</t>
+          <t>Phylogénie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La systématique, ou l'étude de la diversité biologique en vue de sa classification, se concentre, à la lumière des découvertes récentes, sur une classification phylogénétique remplaçant à présent la classification classique.[réf. nécessaire]
 La classification classique établit des groupes ou taxons en fonction d'un simple critère de ressemblance globale.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Phylog%C3%A9nie</t>
+          <t>Phylogénie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Cladistique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La cladistique, dont les bases ont été jetées par Willi Hennig, hiérarchise les caractères comparés. Ne sont en fait regroupés dans un même taxon que les êtres vivants qui partagent des caractères homologues :
 une « homologie apomorphique » (ou apomorphie du grec ἀπό / apó, « dérivée de » et μορφή / morphḗ, « forme ») est partagée par deux ou plusieurs taxons-frères, et concourt à déterminer un groupe monophylétique strict, ou clade, même si tous les descendants n'ont pas conservé ce caractère (exemple : tous les tétrapodes ont ou ont eu quatre membres, même s'ils ont disparu chez les serpents) ;
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Phylog%C3%A9nie</t>
+          <t>Phylogénie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Phénétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La phénétique consiste à étudier les relations de similarité ou de dissimilarité globale entre les êtres vivants ; on a longtemps supposé, et ce peut être exact, que le degré de ressemblance est corrélé au degré de parenté. Méthodologiquement, on commence par quantifier la ressemblance entre les êtres vivants à classer.
 Toutefois, en raison des analogies, les caractères morphologiques ne garantissent pas la parenté : certaines ressemblances entre êtres vivants ou taxons ne peuvent en effet pas être attribuées à une ascendance commune. Elles peuvent découler d'une adaptation analogue : on parle alors de convergence évolutive car deux taxons différents vivant dans des niches écologiques semblables ou sur lesquels la sélection naturelle a eu un impact semblable, pourront avoir des caractères analogues. Les ailes des oiseaux et des chauves-souris sont des caractères analogues en tant qu'adaptations des membres antérieurs au vol ramé, mais sont apparues séparément dans chacune de ces deux lignées, et ne sont donc pas héritées d'un ancêtre ailé commun.
@@ -638,7 +658,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Phylog%C3%A9nie</t>
+          <t>Phylogénie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,7 +676,9 @@
           <t>Utilisation conjointe de la phénétique et de la cladistique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant longtemps des discussions, parfois violentes, ont opposé tenants de l'une ou de l'autre technique. Aujourd'hui la phénétique et la cladistique sont souvent utilisées conjointement comme deux méthodes indépendantes. Lorsque leurs résultats sont convergents, on obtient des phylogénies très solides ; dans le cas contraire, on poursuit les études. L'utilisation de la phénétique moléculaire et de la cladistique ainsi que la confrontation des arbres obtenus a été largement permise par les méthodes modernes que sont l'amplification par PCR et le séquençage, alliées à de puissants outils de calcul qui permettent d'automatiser ces méthodes.
 L'utilisation conjointe de ces deux méthodes a révélé l'existence dans la classification classique de nombreux regroupements artificiels, basés sur des ressemblances de convergence, donc non fondés sur les liens de parenté et qui sont donc à présent considérés comme non pertinents et ne doivent plus être utilisés en taxonomie : c'est, par exemple, le cas des poissons (on parle maintenant de « vertébrés non-tétrapodes »), des batraciens fossiles et actuels (on parle maintenant de « tétrapodes non-amniotes ») ou des reptiles (on parle maintenant séparément de « chéloniens », de « lépidosaures » ou de « crocodiliens », ces derniers étant plus proches des oiseaux que des deux autres groupes). Un autre exemple est l'utilisation du gène 16 s pour les études de phylogénie des procaryotes.
@@ -670,7 +692,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Phylog%C3%A9nie</t>
+          <t>Phylogénie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -688,7 +710,9 @@
           <t>Critères de la phylogénie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le partage entre espèces d'un caractère ou d'un certain nombre de caractères est un indice de l'éventualité d'une origine commune remontant jusqu'à un ancêtre commun, le premier à avoir développé ce caractère ou ensemble de caractères. L'existence de l'ancêtre peut donc être déduite par la méthode cladistique, mais pas son identité, qui reste inconnue à moins que soient trouvés des fossiles à la fois d'individus d'une espèce-ancêtre et d'individus d'une espèce-descendante en ligne directe, ce qui statistiquement est si improbable, que l'on considère cela comme impossible. Par exemple, même si les oiseaux partagent tous un ancêtre commun, la découverte en 1861 d'un fossile comme Archaeopteryx (un coelurosaure proche des oiseaux) ne prouve pas que cette espèce-là en particulier soit l'ancêtre de tous les oiseaux actuels, car une découverte future pourrait mettre au jour un coelurosaure fossile plus ancien, ou plus proche des oiseaux qu'Archaeopteryx (c'est pourquoi on parle maintenant d'« avialiens non-aviens » pour ces groupes intermédiaires, expression qui traduit l'absence de certitude d'être en face d'un ancêtre direct des oiseaux modernes).
 Les rapports d'ancêtre à descendants (la généalogie) ne peuvent être identifiés en tant que tels, que si l'identité même de l'ancêtre et des descendants est préalablement connue. Autrement dit, pour retracer la généalogie, la science de la classification devrait avoir la certitude de connaître toutes les espèces existantes et ayant existé. Comme ce n'est pas le cas, car l'humanité est loin de pouvoir connaître la totalité des espèces vivantes et fossiles, la généalogie, même si elle est réelle, ne peut être précisément retracée, mais seulement reconstituée avec un degré de probabilité que la science tente d'augmenter, en multipliant les études de ces éléments partiels que sont les espèces fossiles et actuelles connues. Cela permet d'évaluer les rapports de parenté entre espèces. Telle est la différence entre une généalogie (« qui est ancêtre de qui ? ») et une phylogénie (« qui est le plus proche parent de qui ? »). Les rapports phylogénétiques entre espèces connues forment ainsi de possibles critères objectifs de classification.
